--- a/InputFiles/ICDC/TC02_Canine_Study-COTC022_Biobank-NotApplicable.xlsx
+++ b/InputFiles/ICDC/TC02_Canine_Study-COTC022_Biobank-NotApplicable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0032FBC7-9F6E-4D52-A622-838274587706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438139A3-8101-46F3-B226-01073D56997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -60,12 +60,45 @@
     <t>StudyFilesTab</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (c)&lt;--(diag:diagnosis)
+    <t>TC02_Canine_Study-COTC022_Biobank-NotApplicable_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC02_Canine_Study-COTC022_Biobank-NotApplicable_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;--(c:case)
+Where s.clinical_study_designation in ['COTC022']
+OPTIONAL MATCH (c)&lt;--(r:registration)
+WITH s, c, COLLECT(CASE r.registration_origin WHEN s.clinical_study_designation THEN null ELSE r.registration_origin END) AS registrations
+WHERE registrations = []
+OPTIONAL MATCH (s)--&gt;(p:program)
+OPTIONAL MATCH (cf:file)-[*]-&gt;(c)
+OPTIONAL MATCH (p:program)--&gt;(s)
 OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+OPTIONAL MATCH (sf:file)--&gt;(s)
+OPTIONAL MATCH (c)--&gt;(co:cohort)
+RETURN
+	count(distinct p) AS Programs,
+    count(distinct s) AS Studies,
+    count(distinct c) AS Cases,
+    count(distinct samp) AS Samples,
+    count(distinct cf) AS `Case Files`,
+    count(distinct sf) AS `Study Files`</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;--(c:case)&lt;--(demo:demographic)
+Where s.clinical_study_designation in ['COTC022']
+OPTIONAL MATCH (c)&lt;--(r:registration)
+WITH s, c, COLLECT(CASE r.registration_origin WHEN s.clinical_study_designation THEN null ELSE r.registration_origin END) AS registrations
+WHERE registrations = []
+OPTIONAL MATCH (cf:file)-[*]-&gt;(c)
+OPTIONAL MATCH (p:program)--&gt;(s)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (sf:file)--&gt;(s)
+OPTIONAL MATCH (c)--&gt;(co:cohort)
+OPTIONAL MATCH (c)&lt;--(demo:demographic)
+OPTIONAL MATCH (c)&lt;--(diag:diagnosis)
  WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
-WHERE s.clinical_study_designation IN ['COTC022'] and r.registration_origin IN ['Not Applicable']
 RETURN  coalesce(c.case_id, '') AS `Case ID` ,
         coalesce(s.clinical_study_designation, '') AS `Study Code` ,
         coalesce(s.clinical_study_type, '') AS  `Study Type`,
@@ -83,7 +116,13 @@
   </si>
   <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-WHERE s.clinical_study_designation IN ['COTC022'] and r.registration_origin IN ['Not Applicable']
+WHERE s.clinical_study_designation IN ['COTC022'] 
+OPTIONAL MATCH (c)&lt;--(r:registration)
+WITH s, c, COLLECT(CASE r.registration_origin WHEN s.clinical_study_designation THEN null ELSE r.registration_origin END) AS registrations
+WHERE registrations = []
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (c)&lt;--(demo:demographic)
+OPTIONAL MATCH (c)&lt;--(diag:diagnosis)
 WITH DISTINCT samp AS samp, c, demo, diag
 RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
         coalesce(c.case_id, '') AS `Case ID`, 
@@ -101,12 +140,14 @@
 limit 100</t>
   </si>
   <si>
-    <t>MATCH (f:file)--&gt;(parent)
+    <t>MATCH (s:study)&lt;--(c)
+WHERE s.clinical_study_designation IN ['COTC022']
+OPTIONAL MATCH (c)&lt;--(r:registration)
+WITH s, c, COLLECT(CASE r.registration_origin WHEN s.clinical_study_designation THEN null ELSE r.registration_origin END) AS registrations
+WHERE registrations = []
+MATCH (f:file)--&gt;(parent)
 MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
-MATCH (diag:diagnosis)--&gt;(c)
-WHERE r.registration_origin IN ['Not Applicable']
-OPTIONAL MATCH (s:study)&lt;--(c)
-WHERE s.clinical_study_designation IN ['COTC022']
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
 OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
 WITH
         DISTINCT f, parent, c, demo, diag, s, samp,
@@ -133,14 +174,18 @@
         coalesce(demo.breed,'') AS Breed ,
         coalesce(diag.disease_term,'') AS Diagnosis
         order by f.file_name asc
-        limit 100</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)--&gt;(s:study)
-WHERE s.clinical_study_designation IN ['COTC022']
+       limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (s)&lt;--(c:case)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (r:registration)--&gt;(c)
+MATCH (c)&lt;--(demo:demographic)
+WHERE s.clinical_study_designation IN  ['COTC022']
+WITH s, c, COLLECT(CASE r.registration_origin WHEN s.clinical_study_designation THEN null ELSE r.registration_origin END) AS registrations
+WHERE registrations = []
+MATCH (f:file)--&gt;(s:study)
+MATCH (c)&lt;--(demo:demographic)
 MATCH (s)&lt;--(c:case)&lt;--(diag:diagnosis)
-WHERE r.registration_origin IN ['Not Applicable']
-MATCH (c)&lt;--(demo:demographic)
 WITH
         DISTINCT f, c, demo, diag, s,
         ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
@@ -163,28 +208,6 @@
   coalesce(s.clinical_study_designation,'') AS `Study Code`
   order by 'File Name' asc
   limit 100</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(s)
-WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
-  WHERE s.clinical_study_designation IN ['COTC022'] and r.registration_origin IN ['Not Applicable']
-RETURN  
-    count(distinct p) AS Programs,
-    count(distinct s) AS Studies,
-    count(distinct c) AS Cases,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Case Files`,
-    count(distinct sf) AS `Study Files`</t>
-  </si>
-  <si>
-    <t>TC02_Canine_Study-COTC022_Biobank-NotApplicable_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC02_Canine_Study-COTC022_Biobank-NotApplicable_WebData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -258,9 +281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -298,7 +321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -404,7 +427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -546,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,20 +579,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.7265625" customWidth="1"/>
-    <col min="3" max="3" width="75.7265625" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.77734375" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -586,72 +609,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
